--- a/results/I3_N5_M2_T45_C200_DepLowerLeft_s4_P6_res.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepLowerLeft_s4_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>268.2508688405959</v>
+        <v>111.5522071246552</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.5508688405959</v>
+        <v>37.55220712465517</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.542561501688547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.542561501688547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>182.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>49.58000000000001</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,39 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -689,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -700,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -711,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -722,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -893,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31.61595173195241</v>
+        <v>33.15868643584639</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34.28956874289246</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>33.71927412272879</v>
       </c>
     </row>
     <row r="7">
@@ -925,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40.85355423476665</v>
+        <v>41.52472093889505</v>
       </c>
     </row>
     <row r="9">
@@ -933,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>43.21602380635411</v>
+        <v>42.39628893866063</v>
       </c>
     </row>
   </sheetData>
@@ -947,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -975,48 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1118,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.9950000000001</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1129,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000001</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1140,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.6650000000001</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1151,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000001</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1162,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000008</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -1173,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>202.88</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13">
@@ -1184,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>217.105</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
@@ -1195,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>220.47</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
@@ -1206,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>229.37</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>221.235</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
@@ -1228,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>163.9900000000008</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
@@ -1239,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>163.9100000000008</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19">
@@ -1250,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>161.6700000000008</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20">
@@ -1261,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>158.3650000000008</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1272,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>152.5850000000008</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22">
@@ -1283,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>122.3699999999998</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23">
@@ -1294,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>134.135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24">
@@ -1305,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>125.8349999999998</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25">
@@ -1316,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>135.895</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26">
@@ -1327,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>135.965</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27">
@@ -1338,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>59.8949999999997</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1349,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>63.81999999999971</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1360,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>63.17499999999971</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>62.68499999999971</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
@@ -1382,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>61.9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1393,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>202.88</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33">
@@ -1404,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>217.105</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34">
@@ -1415,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>220.47</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35">
@@ -1426,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>229.37</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36">
@@ -1437,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>221.235</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37">
@@ -1448,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>163.9900000000008</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38">
@@ -1459,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>163.9100000000008</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39">
@@ -1470,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>161.6700000000008</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40">
@@ -1481,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>158.3650000000008</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41">
@@ -1492,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>152.5850000000008</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1539,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1550,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>17.105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1561,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>20.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1572,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>29.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1583,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>21.235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1905,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1916,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1927,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1938,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1949,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1963,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1988,61 +1913,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
